--- a/dat/Data.xlsx
+++ b/dat/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="UOM" sheetId="13" r:id="rId1"/>
@@ -2914,7 +2914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -16701,7 +16701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
     </sheetView>
